--- a/docs/admin/Levantamento_Horas_Simulacao.xlsx
+++ b/docs/admin/Levantamento_Horas_Simulacao.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>APP ACADEMIA 2</t>
+  </si>
+  <si>
+    <t>COMISSÃO (%)</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +101,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +280,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,7 +328,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,12 +647,13 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
@@ -656,8 +674,13 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -666,17 +689,20 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6">
         <f>E3*$H$8</f>
-        <v>4592</v>
+        <v>4920</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -685,20 +711,28 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="0">E4*$H$8</f>
-        <v>9184</v>
+        <v>9512</v>
       </c>
       <c r="H4" s="11">
         <f>SUM(E3:E12)</f>
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="28">
+        <v>10</v>
+      </c>
+      <c r="M4" s="29">
+        <f>H21*L4%</f>
+        <v>1968</v>
+      </c>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -707,17 +741,20 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>1967.9999999999998</v>
+        <v>2296</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -726,19 +763,19 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>2624</v>
-      </c>
-      <c r="H6" s="18" t="s">
+        <v>2951.9999999999995</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -749,11 +786,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -764,13 +801,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>32.799999999999997</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -781,11 +818,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -793,13 +830,13 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -807,14 +844,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <f>H8*H4</f>
-        <v>18368</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19680</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -822,28 +859,28 @@
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="11">
         <v>0</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="12">
         <f>H11*H16%</f>
         <v>0</v>
       </c>
@@ -872,9 +909,9 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="27">
+      <c r="H21" s="12">
         <f>H11-I16</f>
-        <v>18368</v>
+        <v>19680</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -885,18 +922,21 @@
       <c r="J22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="H16:H17"/>
+  <mergeCells count="14">
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="H11:J12"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/docs/admin/Levantamento_Horas_Simulacao.xlsx
+++ b/docs/admin/Levantamento_Horas_Simulacao.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -48,19 +48,109 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>APP ACADEMIA</t>
-  </si>
-  <si>
-    <t>APP EXPRESSO MOTO</t>
-  </si>
-  <si>
-    <t>APP MOSTRUARIO</t>
-  </si>
-  <si>
-    <t>APP ACADEMIA 2</t>
-  </si>
-  <si>
     <t>COMISSÃO (%)</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>GALERIA DE FOTOS</t>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+  </si>
+  <si>
+    <t>BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>MENSAGENS</t>
+  </si>
+  <si>
+    <t>FEED DE NOTÍCIAS</t>
+  </si>
+  <si>
+    <t>NOTIFICAÇÕES</t>
+  </si>
+  <si>
+    <t>CURTIR</t>
+  </si>
+  <si>
+    <t>COMPARTILHAR</t>
+  </si>
+  <si>
+    <t>COMENTAR</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÕES</t>
+  </si>
+  <si>
+    <t>NOTIFICAÇÕES EMAIL</t>
+  </si>
+  <si>
+    <t>PRIVACIDADE</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>EVENTOS</t>
+  </si>
+  <si>
+    <t>GRUPOS</t>
+  </si>
+  <si>
+    <t>TELAS; HTML; RESPONSIVE</t>
+  </si>
+  <si>
+    <t>ERM; SCRIPT; CRIAÇÃO</t>
+  </si>
+  <si>
+    <t>DADOS PERFIL; FOTO; CAPA</t>
+  </si>
+  <si>
+    <t>ALBUNS; FOTOS</t>
+  </si>
+  <si>
+    <t>MENSAGENS PRIVADAS DE AMIGOS</t>
+  </si>
+  <si>
+    <t>REDE DE AMIGOS</t>
+  </si>
+  <si>
+    <t>LISTA DE NOTÍCIAS DOS AMIGOS; PUBLICOS; PATROCINADOS</t>
+  </si>
+  <si>
+    <t>NOTIFICAÇÕES EM GERAL</t>
+  </si>
+  <si>
+    <t>CURTIR UMA PUBLICAÇÃO</t>
+  </si>
+  <si>
+    <t>COMPARTILHAR UMA PUBLICAÇÃO</t>
+  </si>
+  <si>
+    <t>COMENTAR UMA PUBLICAÇÃO</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÕES GERAIS</t>
+  </si>
+  <si>
+    <t>NOTIFICAÇÕES POR EMAIL EM GERAL</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÃO DE PRIVACIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA DE CHAT </t>
+  </si>
+  <si>
+    <t>SISTEMA DE EVENTOS</t>
+  </si>
+  <si>
+    <t>CRIAR; GERENCIAR; PARTICIPAR DE GRUPOS</t>
+  </si>
+  <si>
+    <t>REDE AMIGOS; SOLICITAÇÕES DE AMIGOS; BUSCAR CONTATOS DE EMAIL; SUGESTÕES</t>
   </si>
 </sst>
 </file>
@@ -245,26 +335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,61 +349,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,293 +732,1555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="57" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="4" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="2.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="28" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="25">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27">
+        <f>E3*$H$8</f>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="25">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" ref="F4:F67" si="0">E4*$H$8</f>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(E3:E110)</f>
+        <v>273</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4">
-        <v>150</v>
-      </c>
-      <c r="F3" s="6">
-        <f>E3*$H$8</f>
-        <v>4920</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="M4" s="6">
+        <f>H21*L4%</f>
+        <v>805.89599999999996</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4">
-        <v>290</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="0">E4*$H$8</f>
-        <v>9512</v>
-      </c>
-      <c r="H4" s="11">
-        <f>SUM(E3:E12)</f>
-        <v>600</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="L4" s="28">
+      <c r="D5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="25">
         <v>10</v>
       </c>
-      <c r="M4" s="29">
-        <f>H21*L4%</f>
-        <v>1968</v>
-      </c>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="F5" s="27">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="25">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="25">
+        <v>8</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="25">
+        <v>10</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="H8" s="8">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25">
+        <v>8</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="25">
+        <v>8</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="25">
+        <v>8</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H11" s="8">
+        <f>H8*H4</f>
+        <v>8954.4</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="25">
+        <v>8</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="25">
+        <v>15</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="0"/>
+        <v>491.99999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4">
+      <c r="C14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="25">
+        <v>8</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="25">
+        <v>15</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="0"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="25">
+        <v>45</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" si="0"/>
+        <v>1475.9999999999998</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="23">
+        <f>H11*H16%</f>
+        <v>895.44</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="25">
+        <v>30</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" si="0"/>
+        <v>983.99999999999989</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="25">
+        <v>45</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="0"/>
+        <v>1475.9999999999998</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="25">
+        <v>15</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="0"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>H11-I16</f>
+        <v>8058.9599999999991</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="25">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>30</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="25">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
+        <v>33</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="25">
+        <v>35</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="25">
+        <v>36</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="25">
+        <v>37</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="25">
+        <v>38</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="25">
+        <v>39</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="25">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="25">
+        <v>41</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="25">
+        <v>42</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="25">
+        <v>43</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="25">
+        <v>44</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="25">
+        <v>45</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="25">
+        <v>46</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="25">
+        <v>47</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="25">
+        <v>48</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="25">
+        <v>49</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="25">
+        <v>50</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="25">
+        <v>51</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="25">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="25">
+        <v>53</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="25">
+        <v>54</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="25">
+        <v>55</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="25">
+        <v>56</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="25">
+        <v>57</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="25">
+        <v>58</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="25">
+        <v>59</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="25">
+        <v>60</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="25">
+        <v>61</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="25">
+        <v>62</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="25">
+        <v>63</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="25">
+        <v>64</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="25">
+        <v>65</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="25">
+        <v>66</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="27">
+        <f t="shared" ref="F68:F110" si="1">E68*$H$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="25">
+        <v>67</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>68</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="25">
+        <v>69</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
         <v>70</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>2296</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
+      <c r="C72" s="25"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="25">
+        <v>71</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="25">
+        <v>72</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>73</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="25">
+        <v>74</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="25">
+        <v>75</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="25">
+        <v>76</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="25">
+        <v>77</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="25">
+        <v>78</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="25">
+        <v>79</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="25">
+        <v>80</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="25">
+        <v>81</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="25">
+        <v>82</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="25">
+        <v>83</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="25">
+        <v>84</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="25">
+        <v>85</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="25">
+        <v>86</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="25">
+        <v>87</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="25">
+        <v>88</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="25">
+        <v>89</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="25">
         <v>90</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>2951.9999999999995</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="13">
-        <f>H8*H4</f>
-        <v>19680</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f>H11*H16%</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="8:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="12">
-        <f>H11-I16</f>
-        <v>19680</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="25">
+        <v>91</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="25">
+        <v>92</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="25">
+        <v>93</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="25">
+        <v>94</v>
+      </c>
+      <c r="C96" s="25"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="25">
+        <v>95</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="25">
+        <v>96</v>
+      </c>
+      <c r="C98" s="25"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="25">
+        <v>97</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="25">
+        <v>98</v>
+      </c>
+      <c r="C100" s="25"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="25">
+        <v>99</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="25">
+        <v>100</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="25">
+        <v>101</v>
+      </c>
+      <c r="C103" s="25"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="25">
+        <v>102</v>
+      </c>
+      <c r="C104" s="25"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="25">
+        <v>103</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="25">
+        <v>104</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="25">
+        <v>105</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="25">
+        <v>106</v>
+      </c>
+      <c r="C108" s="25"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="25">
+        <v>107</v>
+      </c>
+      <c r="C109" s="25"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="25">
+        <v>108</v>
+      </c>
+      <c r="C110" s="25"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="M4:N5"/>
     <mergeCell ref="L4:L5"/>
@@ -930,13 +2288,6 @@
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
